--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E2A64-BC9B-CB41-93DF-C32A5E4D2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32ED3C-A8F7-D340-9009-C52CBEA5D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>title</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>allows you to quickly find differences between two versions of text</t>
+  </si>
+  <si>
+    <t>Posit Conference 2024 Mastodon ‘Toots’</t>
+  </si>
+  <si>
+    <t>https://apps.machlis.com/shiny/positconf/</t>
+  </si>
+  <si>
+    <t>Search through Mastodon “toots” (posts) with the #PositConf2024 hashtag, by Sharon Machlis</t>
   </si>
 </sst>
 </file>
@@ -576,9 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -818,6 +829,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32ED3C-A8F7-D340-9009-C52CBEA5D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E05995-C1BC-9F4A-BBFB-EE44756FCBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>title</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Search through Mastodon “toots” (posts) with the #PositConf2024 hashtag, by Sharon Machlis</t>
+  </si>
+  <si>
+    <t>Awesome Data Science Settings</t>
+  </si>
+  <si>
+    <t>https://github.com/RamiKrispin/awesome-ds-setting</t>
+  </si>
+  <si>
+    <t>a tutorial for setting a new machine with core data science tools, by Rami Krispin</t>
   </si>
 </sst>
 </file>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,6 +849,17 @@
         <v>63</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E05995-C1BC-9F4A-BBFB-EE44756FCBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BCB80-5477-C44B-BC64-891C412E8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>title</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>a tutorial for setting a new machine with core data science tools, by Rami Krispin</t>
+  </si>
+  <si>
+    <t>Examples of statistical methodology</t>
+  </si>
+  <si>
+    <t>Stat methods</t>
+  </si>
+  <si>
+    <t>https://psiaims.github.io/CAMIS/</t>
   </si>
 </sst>
 </file>
@@ -594,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,6 +869,17 @@
         <v>66</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
